--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/New_Orleans_Pelicans.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/New_Orleans_Pelicans.xlsx
@@ -588,79 +588,79 @@
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="G2" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H2" t="n">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.511</v>
+        <v>0.515</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="M2" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="N2" t="n">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="O2" t="n">
-        <v>0.522</v>
+        <v>0.526</v>
       </c>
       <c r="P2" t="n">
-        <v>0.553</v>
+        <v>0.555</v>
       </c>
       <c r="Q2" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R2" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S2" t="n">
-        <v>0.827</v>
+        <v>0.822</v>
       </c>
       <c r="T2" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U2" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="V2" t="n">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="W2" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X2" t="n">
         <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB2" t="n">
-        <v>482</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3">
@@ -676,67 +676,67 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H3" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="I3" t="n">
-        <v>0.362</v>
+        <v>0.369</v>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L3" t="n">
-        <v>0.301</v>
+        <v>0.307</v>
       </c>
       <c r="M3" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N3" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O3" t="n">
-        <v>0.421</v>
+        <v>0.426</v>
       </c>
       <c r="P3" t="n">
-        <v>0.436</v>
+        <v>0.443</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" t="n">
-        <v>0.78</v>
+        <v>0.769</v>
       </c>
       <c r="T3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U3" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V3" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -745,10 +745,10 @@
         <v>39</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H4" t="n">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="I4" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="J4" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L4" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="M4" t="n">
         <v>44</v>
       </c>
       <c r="N4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O4" t="n">
-        <v>0.427</v>
+        <v>0.423</v>
       </c>
       <c r="P4" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="Q4" t="n">
         <v>38</v>
@@ -815,28 +815,28 @@
         <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V4" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W4" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
         <v>35</v>
       </c>
       <c r="AB4" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="G5" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H5" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="I5" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L5" t="n">
-        <v>0.366</v>
+        <v>0.361</v>
       </c>
       <c r="M5" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N5" t="n">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O5" t="n">
-        <v>0.471</v>
+        <v>0.475</v>
       </c>
       <c r="P5" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="Q5" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R5" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S5" t="n">
-        <v>0.846</v>
+        <v>0.851</v>
       </c>
       <c r="T5" t="n">
         <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="V5" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="W5" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AA5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="n">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6">
@@ -940,79 +940,79 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>646</v>
+      </c>
+      <c r="G6" t="n">
+        <v>69</v>
+      </c>
+      <c r="H6" t="n">
+        <v>145</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>607</v>
-      </c>
-      <c r="G6" t="n">
-        <v>61</v>
-      </c>
-      <c r="H6" t="n">
-        <v>134</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>21</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.333</v>
+        <v>0.391</v>
       </c>
       <c r="M6" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O6" t="n">
-        <v>0.478</v>
+        <v>0.492</v>
       </c>
       <c r="P6" t="n">
-        <v>0.481</v>
+        <v>0.507</v>
       </c>
       <c r="Q6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S6" t="n">
-        <v>0.792</v>
+        <v>0.769</v>
       </c>
       <c r="T6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U6" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="V6" t="n">
+        <v>80</v>
+      </c>
+      <c r="W6" t="n">
+        <v>41</v>
+      </c>
+      <c r="X6" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="n">
         <v>73</v>
       </c>
-      <c r="W6" t="n">
-        <v>38</v>
-      </c>
-      <c r="X6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>72</v>
-      </c>
       <c r="AB6" t="n">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -1028,64 +1028,64 @@
         <v>26</v>
       </c>
       <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
-        <v>18</v>
-      </c>
       <c r="F7" t="n">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H7" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I7" t="n">
-        <v>0.488</v>
+        <v>0.485</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L7" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="M7" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N7" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O7" t="n">
-        <v>0.553</v>
+        <v>0.549</v>
       </c>
       <c r="P7" t="n">
-        <v>0.534</v>
+        <v>0.532</v>
       </c>
       <c r="Q7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S7" t="n">
-        <v>0.848</v>
+        <v>0.851</v>
       </c>
       <c r="T7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="V7" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="W7" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1094,13 +1094,13 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AB7" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -1116,43 +1116,43 @@
         <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="G8" t="n">
         <v>45</v>
       </c>
       <c r="H8" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I8" t="n">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="J8" t="n">
         <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L8" t="n">
-        <v>0.362</v>
+        <v>0.347</v>
       </c>
       <c r="M8" t="n">
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" t="n">
-        <v>0.426</v>
+        <v>0.417</v>
       </c>
       <c r="P8" t="n">
-        <v>0.496</v>
+        <v>0.479</v>
       </c>
       <c r="Q8" t="n">
         <v>19</v>
@@ -1167,13 +1167,13 @@
         <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1292,52 +1292,52 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="G10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I10" t="n">
-        <v>0.401</v>
+        <v>0.404</v>
       </c>
       <c r="J10" t="n">
         <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" t="n">
-        <v>0.228</v>
+        <v>0.224</v>
       </c>
       <c r="M10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N10" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O10" t="n">
-        <v>0.518</v>
+        <v>0.523</v>
       </c>
       <c r="P10" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="T10" t="n">
         <v>9</v>
@@ -1349,22 +1349,22 @@
         <v>39</v>
       </c>
       <c r="W10" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -1380,22 +1380,22 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="n">
-        <v>0.338</v>
+        <v>0.348</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1407,16 +1407,16 @@
         <v>0.214</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O11" t="n">
-        <v>0.373</v>
+        <v>0.385</v>
       </c>
       <c r="P11" t="n">
-        <v>0.362</v>
+        <v>0.371</v>
       </c>
       <c r="Q11" t="n">
         <v>12</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB11" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1644,22 +1644,22 @@
         <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G14" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H14" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I14" t="n">
-        <v>0.618</v>
+        <v>0.634</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1671,16 +1671,16 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N14" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O14" t="n">
-        <v>0.606</v>
+        <v>0.623</v>
       </c>
       <c r="P14" t="n">
-        <v>0.632</v>
+        <v>0.648</v>
       </c>
       <c r="Q14" t="n">
         <v>18</v>
@@ -1692,16 +1692,16 @@
         <v>0.72</v>
       </c>
       <c r="T14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U14" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V14" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X14" t="n">
         <v>6</v>
@@ -1710,13 +1710,13 @@
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -1896,77 +1896,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>6240</v>
+        <v>6505</v>
       </c>
       <c r="G17" t="n">
-        <v>991</v>
+        <v>1038</v>
       </c>
       <c r="H17" t="n">
-        <v>2312</v>
+        <v>2402</v>
       </c>
       <c r="I17" t="n">
-        <v>0.429</v>
+        <v>0.432</v>
       </c>
       <c r="J17" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="K17" t="n">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="L17" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="M17" t="n">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="N17" t="n">
-        <v>1466</v>
+        <v>1526</v>
       </c>
       <c r="O17" t="n">
-        <v>0.482</v>
+        <v>0.486</v>
       </c>
       <c r="P17" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="Q17" t="n">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="R17" t="n">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T17" t="n">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="U17" t="n">
-        <v>873</v>
+        <v>909</v>
       </c>
       <c r="V17" t="n">
-        <v>1195</v>
+        <v>1241</v>
       </c>
       <c r="W17" t="n">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="X17" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Z17" t="n">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="AA17" t="n">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AB17" t="n">
-        <v>2687</v>
+        <v>2801</v>
       </c>
     </row>
   </sheetData>
